--- a/file test/Template-TestCase_QLCHHoa.xlsx
+++ b/file test/Template-TestCase_QLCHHoa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF40452-995E-40A2-A105-F46279BB8E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59B155C-2CD5-4A39-9CAC-1AF85BF2A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="205">
   <si>
     <t>Warning</t>
   </si>
@@ -631,6 +631,21 @@
   </si>
   <si>
     <t>Kiểm tra cập nhật tổng tiền sau mỗi lần xoá sản phẩm vào hàng chờ</t>
+  </si>
+  <si>
+    <t>Sửa loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tên loại sản phẩm đúng định dạng</t>
+  </si>
+  <si>
+    <t>Xóa loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Có thể xóa loại sản phẩm vừa mới thêm vào (chưa có ràng buộc khóa ngoại)</t>
+  </si>
+  <si>
+    <t>Không thể xóa loại sản phẩm đã từng được bán ra (có ràng buộc khóa ngoại)</t>
   </si>
 </sst>
 </file>
@@ -2146,44 +2161,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3848100" cy="2125980"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image11.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14708505" y="1489710"/>
-          <a:ext cx="3848100" cy="2125980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -2202,7 +2179,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2240,7 +2217,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2278,7 +2255,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2323,7 +2300,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="521"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2331,6 +2308,50 @@
         <a:xfrm>
           <a:off x="33505140" y="1386840"/>
           <a:ext cx="3505200" cy="2369167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103474</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC84B968-392A-1BC6-A2FD-96FCE2D13FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15621000" y="1398552"/>
+          <a:ext cx="3486754" cy="2342868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4175,15 +4196,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C65">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -4236,7 +4257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -5340,15 +5361,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5383,7 +5404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -6413,15 +6434,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -6456,7 +6477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
@@ -8833,15 +8854,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
-    <mergeCell ref="R8:W20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
@@ -9944,15 +9965,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
@@ -11075,15 +11096,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
@@ -12162,15 +12183,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
@@ -12205,8 +12226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -12214,7 +12235,7 @@
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
     <col min="2" max="2" width="22.19921875" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" customWidth="1"/>
-    <col min="4" max="4" width="60.8984375" customWidth="1"/>
+    <col min="4" max="4" width="65.69921875" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" customWidth="1"/>
     <col min="7" max="7" width="22.69921875" customWidth="1"/>
@@ -13239,7 +13260,9 @@
       <c r="F47" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="18">
+        <v>44901</v>
+      </c>
       <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:44" ht="15.6">
@@ -13255,14 +13278,14 @@
       <c r="D48" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="18"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="18">
-        <v>44901</v>
-      </c>
-      <c r="H48" s="19"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="4">
@@ -13272,16 +13295,20 @@
         <v>81</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="18">
+        <v>44871</v>
+      </c>
       <c r="F49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="18">
+        <v>44901</v>
+      </c>
       <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8" ht="15.6">
@@ -13388,13 +13415,19 @@
       <c r="A55" s="4">
         <v>18</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C55" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
@@ -13402,13 +13435,19 @@
       <c r="A56" s="4">
         <v>19</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="C56" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="F56" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
@@ -13416,13 +13455,19 @@
       <c r="A57" s="4">
         <v>20</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="C57" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
@@ -13531,19 +13576,19 @@
           <x14:formula1>
             <xm:f>Define!A8:A10</xm:f>
           </x14:formula1>
-          <xm:sqref>C47</xm:sqref>
+          <xm:sqref>C47 C49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{235E6B2B-5802-4D37-BC28-6466EEEBE6AC}">
           <x14:formula1>
             <xm:f>Define!A10:A12</xm:f>
           </x14:formula1>
-          <xm:sqref>C48:C54</xm:sqref>
+          <xm:sqref>C48 C50:C57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
-          <xm:sqref>C38:C46 C55:C62</xm:sqref>
+          <xm:sqref>C38:C46 C58:C62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13555,7 +13600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -14589,15 +14634,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -14632,7 +14677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -15728,15 +15773,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:W20"/>
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="R8:W20"/>
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
